--- a/src/main/webapp/resources/front/upload/excel/FIS_주요 가공식품 주간가격동향.xlsx
+++ b/src/main/webapp/resources/front/upload/excel/FIS_주요 가공식품 주간가격동향.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="21348" windowHeight="12828"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="21345" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,11 +82,182 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>727</t>
+    <t>변동없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남양 맛있는우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ 스팸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데푸드 로스팜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승</t>
+  </si>
+  <si>
+    <t>상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동서맥심모카골드마일드믹스</t>
+  </si>
+  <si>
+    <t>남양 프렌치카페믹스</t>
+  </si>
+  <si>
+    <t>100ML</t>
+  </si>
+  <si>
+    <t>오뚜기 고소한참기름</t>
+  </si>
+  <si>
+    <t>C24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백설진한참기름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데 마가렛트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해태 홈런볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20141026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-18.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2506</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -98,176 +265,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변동없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울우유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남양 맛있는우유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2505</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2510</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CJ 스팸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데푸드 로스팜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1787</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>상승</t>
-  </si>
-  <si>
-    <t>상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동서맥심모카골드마일드믹스</t>
-  </si>
-  <si>
-    <t>10620</t>
-  </si>
-  <si>
-    <t>-6.2</t>
-  </si>
-  <si>
-    <t>남양 프렌치카페믹스</t>
-  </si>
-  <si>
-    <t>12746</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>100ML</t>
-  </si>
-  <si>
-    <t>오뚜기 고소한참기름</t>
-  </si>
-  <si>
-    <t>2057</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>2059</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>C24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>백설진한참기름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데 마가렛트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해태 홈런볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-15.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20141023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20141028</t>
+    <t>15.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -332,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -347,38 +353,12 @@
       <right style="dotted">
         <color theme="8" tint="0.59996337778862885"/>
       </right>
-      <top/>
-      <bottom style="dotted">
-        <color theme="8" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="8" tint="0.59996337778862885"/>
-      </left>
-      <right style="dotted">
-        <color theme="8" tint="0.59996337778862885"/>
-      </right>
       <top style="dotted">
         <color theme="8" tint="0.59996337778862885"/>
       </top>
       <bottom style="dotted">
         <color theme="8" tint="0.59996337778862885"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color theme="8" tint="0.59996337778862885"/>
-      </left>
-      <right style="dotted">
-        <color theme="8" tint="0.59996337778862885"/>
-      </right>
-      <top style="dotted">
-        <color theme="8" tint="0.59996337778862885"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -429,21 +409,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="8" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -451,17 +542,38 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,7 +676,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -599,7 +710,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -775,411 +885,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="16.5">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:12" ht="69.75" customHeight="1" thickBot="1">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>56</v>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>11</v>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>11</v>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="4" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>44</v>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1195,12 +1305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1209,12 +1319,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
